--- a/2017年每月提成表/12月份提成表正式版（12-29-3）.xlsx
+++ b/2017年每月提成表/12月份提成表正式版（12-29-3）.xlsx
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
